--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/04 plantilla_product_backlog_puntos_historia MHP.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/04 plantilla_product_backlog_puntos_historia MHP.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="UDgVhpDUcFLY2RF60NzLbDhDVTzIyP4jz2bi6XSgI4c="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="v1G1ZUfaWxoiBVJmBV0ZNPvAytgubZbvGRwOg9CKOM4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Resultado de la actividad Planning Poker</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Total Puntos:</t>
   </si>
   <si>
+    <t>Pivotes planteados por el equipo</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -37,66 +40,6 @@
   </si>
   <si>
     <t>Priorización de Historias de Usuario</t>
-  </si>
-  <si>
-    <t>Clasificación MoSCoW</t>
-  </si>
-  <si>
-    <t>Autenticación y roles</t>
-  </si>
-  <si>
-    <t>HU-7</t>
-  </si>
-  <si>
-    <t>Must Have</t>
-  </si>
-  <si>
-    <t>Registro de vivienda</t>
-  </si>
-  <si>
-    <t>HU-2</t>
-  </si>
-  <si>
-    <t>Registro de residentes</t>
-  </si>
-  <si>
-    <t>HU-3</t>
-  </si>
-  <si>
-    <t>Consulta de vivienda (App Bomberos)</t>
-  </si>
-  <si>
-    <t>HU-5</t>
-  </si>
-  <si>
-    <t>Gestión de grifos</t>
-  </si>
-  <si>
-    <t>HU-6</t>
-  </si>
-  <si>
-    <t>Geolocalización y asignación de comuna</t>
-  </si>
-  <si>
-    <t>HU-1</t>
-  </si>
-  <si>
-    <t>Should Have</t>
-  </si>
-  <si>
-    <t>Sincronización offline</t>
-  </si>
-  <si>
-    <t>HU-8</t>
-  </si>
-  <si>
-    <t>Registro de mascotas</t>
-  </si>
-  <si>
-    <t>HU-4</t>
-  </si>
-  <si>
-    <t>Could Have</t>
   </si>
   <si>
     <r>
@@ -126,6 +69,15 @@
     </r>
   </si>
   <si>
+    <t>HU-1</t>
+  </si>
+  <si>
+    <t>Registro de vivienda</t>
+  </si>
+  <si>
+    <t>1ra</t>
+  </si>
+  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -135,35 +87,107 @@
     <t>Descripción</t>
   </si>
   <si>
+    <t>HU-2</t>
+  </si>
+  <si>
+    <t>Registro de integrantes (residentes)</t>
+  </si>
+  <si>
+    <t>2da</t>
+  </si>
+  <si>
     <t>Muy bajo</t>
   </si>
   <si>
     <t>Tarea simple y rápida</t>
   </si>
   <si>
+    <t>HU-3</t>
+  </si>
+  <si>
+    <t>Registro de mascotas</t>
+  </si>
+  <si>
+    <t>5ta</t>
+  </si>
+  <si>
     <t>Medio</t>
   </si>
   <si>
     <t>Requiere análisis moderado</t>
   </si>
   <si>
+    <t>HU-4</t>
+  </si>
+  <si>
+    <t>Consulta de vivienda (App Bomberos)</t>
+  </si>
+  <si>
+    <t>3ra</t>
+  </si>
+  <si>
     <t>Alto</t>
   </si>
   <si>
     <t>Tarea compleja o con dependencias</t>
   </si>
   <si>
+    <t>HU-5</t>
+  </si>
+  <si>
+    <t>Gestión de grifos</t>
+  </si>
+  <si>
+    <t>4ta</t>
+  </si>
+  <si>
     <t>Muy alto</t>
   </si>
   <si>
     <t>Gran esfuerzo o debe dividirse</t>
+  </si>
+  <si>
+    <t>HU-6</t>
+  </si>
+  <si>
+    <t>Validación de campos</t>
+  </si>
+  <si>
+    <t>6ta</t>
+  </si>
+  <si>
+    <t>HU-7</t>
+  </si>
+  <si>
+    <t>Autenticación y roles</t>
+  </si>
+  <si>
+    <t>7ma</t>
+  </si>
+  <si>
+    <t>HU-8</t>
+  </si>
+  <si>
+    <t>Web Admin</t>
+  </si>
+  <si>
+    <t>8va</t>
+  </si>
+  <si>
+    <t>HU-9</t>
+  </si>
+  <si>
+    <t>Geolocalización y asignación de comuna por coordenadas</t>
+  </si>
+  <si>
+    <t>9na</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -187,8 +211,23 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -196,16 +235,6 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -232,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -260,6 +289,14 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -274,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -283,44 +320,49 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -540,8 +582,7 @@
     <col customWidth="1" min="1" max="1" width="8.29"/>
     <col customWidth="1" min="2" max="2" width="54.14"/>
     <col customWidth="1" min="3" max="4" width="22.14"/>
-    <col customWidth="1" min="5" max="5" width="15.86"/>
-    <col customWidth="1" min="6" max="26" width="10.71"/>
+    <col customWidth="1" min="5" max="25" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -562,269 +603,264 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <f>SUM(C7:C14)</f>
-        <v>66</v>
+        <f>SUM(C7:C13)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" ht="38.25" customHeight="1">
-      <c r="A7" s="6">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" ht="38.25" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="18">
         <v>1.0</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="G8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" ht="38.25" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="21">
+        <v>5.0</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" ht="38.25" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12">
         <v>12.0</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" ht="38.25" customHeight="1">
-      <c r="A8" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="D10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="18">
         <v>8.0</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" ht="38.25" customHeight="1">
-      <c r="A9" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="G10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" ht="38.25" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="12">
         <v>8.0</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" ht="38.25" customHeight="1">
-      <c r="A10" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="D11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="21">
+        <v>12.0</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" ht="38.25" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="38.25" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="12">
         <v>8.0</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" ht="38.25" customHeight="1">
-      <c r="A11" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="D13" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="38.25" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="12">
         <v>8.0</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="38.25" customHeight="1">
-      <c r="A12" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" ht="38.25" customHeight="1">
-      <c r="A13" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="38.25" customHeight="1">
-      <c r="A14" s="6">
+      <c r="D14" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" ht="38.25" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="12">
         <v>8.0</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" ht="38.25" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" ht="38.25" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" ht="28.5" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" ht="27.75" customHeight="1">
-      <c r="A18" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" ht="26.25" customHeight="1">
-      <c r="A19" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" ht="25.5" customHeight="1">
-      <c r="A20" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" s="17">
-        <v>12.0</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" ht="38.25" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" ht="38.25" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
+      <c r="A16" s="22"/>
+    </row>
+    <row r="17" ht="38.25" customHeight="1">
+      <c r="A17" s="22"/>
+    </row>
+    <row r="18" ht="38.25" customHeight="1"/>
+    <row r="19" ht="28.5" customHeight="1"/>
+    <row r="20" ht="27.75" customHeight="1"/>
+    <row r="21" ht="26.25" customHeight="1"/>
+    <row r="22" ht="25.5" customHeight="1"/>
+    <row r="23" ht="25.5" customHeight="1"/>
     <row r="24" ht="38.25" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" ht="38.25" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" ht="38.25" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" ht="38.25" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" ht="38.25" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
@@ -1796,6 +1832,8 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
